--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -721,7 +725,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,7 +1300,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1343,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1443,7 +1451,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2018,7 +2026,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,10 +2069,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2165,7 +2177,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2740,7 +2752,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,10 +2795,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2887,7 +2903,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +625,12 @@
       <c r="E3" s="6">
         <v>0.5</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -725,7 +729,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1300,7 +1304,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,8 +1355,12 @@
       <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -1451,7 +1459,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +2034,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,8 +2085,12 @@
       <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -2177,7 +2189,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,8 +2815,12 @@
       <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -2903,7 +2919,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2189,7 +2189,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,9 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -729,7 +731,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,7 +1306,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1370,9 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1459,7 +1463,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,7 +2038,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2102,9 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2189,7 +2195,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2763,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,7 +2834,9 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2919,7 +2927,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,9 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -731,7 +733,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,7 +1308,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1375,9 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1463,7 +1467,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2038,7 +2042,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2109,9 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2195,7 +2201,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2769,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,7 +2843,9 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2927,7 +2935,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1467,7 +1467,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,9 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
@@ -1307,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1382,9 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
@@ -2042,7 +2046,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,9 +2116,13 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
@@ -2775,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,7 +2856,9 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,9 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
         <v>0</v>
@@ -735,7 +737,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1310,7 +1312,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1382,9 @@
       <c r="D4" s="8">
         <v>5</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
         <v>0</v>
@@ -1471,7 +1475,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2784,7 +2788,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,7 +2858,9 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
         <v>0</v>
@@ -2945,7 +2951,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,9 @@
       <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
@@ -737,7 +739,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,7 +784,6 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1311,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1386,9 @@
       <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
@@ -1475,7 +1478,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2050,7 +2053,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2126,9 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
@@ -2787,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2866,9 @@
       <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,9 @@
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1312,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1401,9 @@
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1478,7 +1482,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2053,7 +2057,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2143,9 @@
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2218,7 +2224,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2793,7 +2799,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2885,9 @@
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2958,7 +2966,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,9 @@
       <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -741,7 +743,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>28.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1315,7 +1317,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1406,9 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1482,7 +1486,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,7 +2061,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2150,9 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2224,7 +2230,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2798,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2894,9 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2966,7 +2974,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,9 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -743,7 +745,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,7 +1319,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1411,9 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1486,7 +1490,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,7 +2065,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2157,9 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2230,7 +2236,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2804,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2903,9 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2974,7 +2982,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,9 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -745,7 +747,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1319,7 +1321,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1416,9 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -1490,7 +1494,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,7 +2069,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2164,9 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2236,7 +2242,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2810,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +2912,9 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2982,7 +2990,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,9 @@
       <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
@@ -747,7 +749,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>40.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1321,7 +1323,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1421,9 @@
       <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
@@ -1494,7 +1498,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2171,9 @@
       <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>3.6</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
@@ -2242,7 +2248,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>38</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2816,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,7 +2921,9 @@
       <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
@@ -2990,7 +2998,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -1498,7 +1498,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,8 +1424,12 @@
       <c r="G5" s="11">
         <v>6</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1498,7 +1502,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>55</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,9 @@
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1322,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1438,9 @@
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1502,7 +1506,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>56.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2077,7 +2081,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2190,9 @@
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2252,7 +2258,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>41.6</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2942,9 @@
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -3002,7 +3010,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,9 @@
       <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1506,7 +1508,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>60.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2081,7 +2083,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2195,9 @@
       <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2258,7 +2262,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>45.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2832,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2949,9 @@
       <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3010,7 +3016,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -3016,7 +3016,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,8 +686,12 @@
       <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1325,7 +1329,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1448,9 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1508,7 +1514,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>64.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2083,7 +2089,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2204,9 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2262,7 +2270,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>49.6</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2837,7 +2845,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,7 +2960,9 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -3016,7 +3026,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +686,15 @@
       <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
@@ -1325,7 +1331,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,8 +1450,12 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
@@ -1508,7 +1518,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>64.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2082,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,8 +2208,12 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
@@ -2262,7 +2276,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>49.6</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2836,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2969,9 @@
       <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
@@ -3018,7 +3034,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2276,7 +2276,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>53.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,9 @@
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14"/>
@@ -1330,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1458,9 @@
       <c r="F6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14"/>
@@ -1518,7 +1522,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>72.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2218,9 @@
       <c r="F6" s="11">
         <v>3.6</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14"/>
@@ -2851,7 +2857,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2928,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2950,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2972,7 +2978,9 @@
       <c r="F6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14"/>
@@ -3034,7 +3042,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +617,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
       </c>
       <c r="E3" s="6">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6">
         <v>4</v>
@@ -631,8 +631,12 @@
       <c r="G3" s="6">
         <v>4</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -653,7 +657,9 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -675,8 +681,12 @@
       <c r="G5" s="11">
         <v>4</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="11">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
+      </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -684,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -696,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
@@ -759,7 +769,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>44.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1332,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,9 @@
       <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -708,8 +710,12 @@
       <c r="G6" s="11">
         <v>0.5</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
@@ -717,7 +723,9 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -769,7 +777,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>64.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1488,9 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1532,7 +1542,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>76.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2107,7 +2117,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2250,9 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2292,7 +2304,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>57.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,7 +2879,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3012,9 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3052,7 +3066,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,9 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -777,7 +779,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>68.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1350,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1493,9 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1542,7 +1546,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>80.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2117,7 +2121,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2257,9 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2304,7 +2310,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>61.2</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3021,9 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3066,7 +3074,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,9 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -779,7 +781,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>72.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1353,7 +1355,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1498,9 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1546,7 +1550,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>84.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2121,7 +2125,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2264,9 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2310,7 +2316,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>65.2</v>
+        <v>69.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2884,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3030,9 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3074,7 +3082,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,9 @@
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -781,7 +783,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>76.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1355,7 +1357,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1503,9 @@
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1550,7 +1554,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>88.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2125,7 +2129,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2271,9 @@
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2316,7 +2322,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>69.199999999999989</v>
+        <v>73.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3039,9 @@
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3082,7 +3090,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,9 @@
       <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -783,7 +785,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>80.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1357,7 +1359,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1508,9 @@
       <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -1554,7 +1558,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>92.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,7 +2133,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2278,9 @@
       <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -2322,7 +2328,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>73.199999999999989</v>
+        <v>77.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2896,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3048,9 @@
       <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -3090,7 +3098,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
@@ -785,7 +785,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>84.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,8 +745,12 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -785,7 +789,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>87.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1359,7 +1363,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,8 +1522,12 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1558,7 +1566,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>96.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,7 +2141,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,8 +2296,12 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2328,7 +2340,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>77.199999999999989</v>
+        <v>81.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2902,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,8 +3070,12 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -3098,7 +3114,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,10 +3061,12 @@
         <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -3114,7 +3116,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>101</v>
+        <v>104.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1566,7 +1566,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>100.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -746,12 +746,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -789,7 +791,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>91.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1362,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="A9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1530,9 @@
       <c r="D8" s="8">
         <v>9</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1568,7 +1570,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>105.5</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2143,7 +2145,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2306,9 @@
       <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2342,7 +2346,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>81.199999999999989</v>
+        <v>85.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2916,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,7 +3084,9 @@
       <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3118,7 +3124,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>104.75</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,6 +384,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -419,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -573,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="A9:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +788,9 @@
       <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -791,7 +827,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1365,7 +1401,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1569,9 @@
       <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1570,7 +1608,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>111.5</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2145,7 +2183,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2347,9 @@
       <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2346,7 +2386,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>85.199999999999989</v>
+        <v>89.199999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2920,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3127,9 @@
       <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3124,7 +3166,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>108.75</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,9 @@
       <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>7</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -799,8 +801,12 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -827,7 +833,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>104.5</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,7 +1407,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I22" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1572,7 +1578,9 @@
       <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -1580,8 +1588,12 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1608,7 +1620,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>115.5</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2183,7 +2195,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
@@ -2350,7 +2362,9 @@
       <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -2358,8 +2372,12 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2386,7 +2404,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>89.199999999999989</v>
+        <v>102.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2960,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -3128,9 +3146,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -3138,8 +3158,12 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3166,7 +3190,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>112.75</v>
+        <v>132.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tomasz" sheetId="4" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,8 +807,12 @@
       <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -833,7 +837,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>119.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1411,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I21:I22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,8 +1598,12 @@
       <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1620,7 +1628,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>129.5</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,7 +2203,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,8 +2386,12 @@
       <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2404,7 +2416,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>102.19999999999999</v>
+        <v>106.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2978,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,8 +3176,12 @@
       <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -3190,7 +3206,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>132.75</v>
+        <v>136.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documenten/Urenlijst.xlsx
+++ b/Documenten/Urenlijst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -12,7 +12,7 @@
     <sheet name="Remco" sheetId="2" r:id="rId3"/>
     <sheet name="Max" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,23 +384,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -436,23 +419,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -608,7 +574,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
@@ -837,7 +803,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="13">
         <f>SUM((C3,C4,C5,C6,C7,C8,C9,C10,D3,D4,D5,D6,D7,D8,D9,D10,E3,E4,E5,E6,E7,E8,E9,E10,F3,F4,F5,F6,F7,F8,F9,F10,G3,G4,G5,G6,G7,G8,G9,G10,H3,H4,H5,H6,H7,H8,H9,H10,I3,I4,I5,I6,I7,I8,I9,I10))</f>
-        <v>123.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
